--- a/metrics/R2/average time/Retinopatía de fondo.xlsx
+++ b/metrics/R2/average time/Retinopatía de fondo.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8954636981455313</v>
+        <v>0.888742998830966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8954636981455313</v>
+        <v>0.888742998830966</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8954636981455313</v>
+        <v>0.888742998830966</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9867844269505857</v>
+        <v>0.9870798018917052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9873573537775572</v>
+        <v>0.9870716649054349</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9874545928961292</v>
+        <v>0.9869558640578772</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9896048705717612</v>
+        <v>0.9896285235300178</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9896048705717612</v>
+        <v>0.9896285235300178</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9896048705717612</v>
+        <v>0.9896285235300178</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.976546748513784</v>
+        <v>0.9782529424407581</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9768045045736024</v>
+        <v>0.9768545640819589</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9776880320400593</v>
+        <v>0.9776537861366701</v>
       </c>
     </row>
   </sheetData>
